--- a/Case/api_test_case_imooc.xlsx
+++ b/Case/api_test_case_imooc.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>CaseId</t>
   </si>
@@ -37,6 +37,9 @@
     <t>cookie操作</t>
   </si>
   <si>
+    <t>予想結果形式</t>
+  </si>
+  <si>
     <t>予想結果</t>
   </si>
   <si>
@@ -61,7 +64,7 @@
     <t>{“username”:”111111”}</t>
   </si>
   <si>
-    <t>message</t>
+    <t>mec</t>
   </si>
   <si>
     <t>002</t>
@@ -80,6 +83,9 @@
   </si>
   <si>
     <t>errorcode</t>
+  </si>
+  <si>
+    <t>1006</t>
   </si>
   <si>
     <t>003</t>
@@ -1308,7 +1314,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1316,15 +1322,15 @@
   <cols>
     <col min="1" max="3" width="8.85156" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.8516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.8516" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.3516" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.1719" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.6719" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.3516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85156" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85156" style="1" customWidth="1"/>
-    <col min="13" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="9" max="10" width="19.3516" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85156" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85156" style="1" customWidth="1"/>
+    <col min="14" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
@@ -1358,220 +1364,232 @@
       <c r="J1" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="K1" s="2"/>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
       <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" ht="13.65" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="F2" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>12</v>
-      </c>
       <c r="I2" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="J2" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="J3" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>24</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="J4" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="J4" s="2"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="J5" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
       <c r="A6" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="J6" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="J6" s="2"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="J7" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
       <c r="A9" s="2"/>
@@ -1583,9 +1601,10 @@
       <c r="G9" s="2"/>
       <c r="H9" s="3"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="2"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
       <c r="A10" s="2"/>
@@ -1597,9 +1616,10 @@
       <c r="G10" s="2"/>
       <c r="H10" s="3"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="2"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" ht="13.65" customHeight="1">
       <c r="A11" s="2"/>
@@ -1614,6 +1634,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" ht="13.65" customHeight="1">
       <c r="A12" s="2"/>
@@ -1625,9 +1646,10 @@
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="2"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Case/api_test_case_imooc.xlsx
+++ b/Case/api_test_case_imooc.xlsx
@@ -1,186 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="18080" windowWidth="15960" xWindow="0" yWindow="40"/>
   </bookViews>
   <sheets>
-    <sheet name="シート1" sheetId="1" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="シート1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
-  <si>
-    <t>CaseId</t>
-  </si>
-  <si>
-    <t>説明</t>
-  </si>
-  <si>
-    <t>DoOrNot</t>
-  </si>
-  <si>
-    <t>前提条件</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>cookie操作</t>
-  </si>
-  <si>
-    <t>予想結果形式</t>
-  </si>
-  <si>
-    <t>予想結果</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>広告取得</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>api3/getbanneradvertver2</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>{“username”:”111111”}</t>
-  </si>
-  <si>
-    <t>mec</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>テスト</t>
-  </si>
-  <si>
-    <t>api3/beta4</t>
-  </si>
-  <si>
-    <t>{“username”:”111112”}</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>errorcode</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>new授業</t>
-  </si>
-  <si>
-    <t>api3/newcourseskill</t>
-  </si>
-  <si>
-    <t>{“username”:”111113”}</t>
-  </si>
-  <si>
-    <t>write</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>評価</t>
-  </si>
-  <si>
-    <t>api3/getdownrecommend</t>
-  </si>
-  <si>
-    <t>{“username”:”111114”}</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>従業詳細</t>
-  </si>
-  <si>
-    <t>api3/getcourseintro</t>
-  </si>
-  <si>
-    <t>{“username”:”111115”}</t>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>再生リスト</t>
-  </si>
-  <si>
-    <t>api3/getmedialist</t>
-  </si>
-  <si>
-    <t>{“username”:”111116”}</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>授業リスト</t>
-  </si>
-  <si>
-    <t>api3/courselistinfo</t>
-  </si>
-  <si>
-    <t>{“username”:”111117”}</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
+      <name val="Arial"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
     </font>
     <font>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+      <color indexed="8"/>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <color indexed="8"/>
       <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -217,44 +71,29 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="5">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1313,350 +1152,542 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView defaultGridColor="1" showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="8.83333" defaultRowHeight="12.75" outlineLevelRow="0"/>
   <cols>
-    <col min="1" max="3" width="8.85156" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.8516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.8516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1719" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6719" style="1" customWidth="1"/>
-    <col min="9" max="10" width="19.3516" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85156" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85156" style="1" customWidth="1"/>
-    <col min="14" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col customWidth="1" max="3" min="1" style="1" width="8.851559999999999"/>
+    <col customWidth="1" max="4" min="4" style="1" width="14.8516"/>
+    <col customWidth="1" max="5" min="5" style="1" width="23.8516"/>
+    <col customWidth="1" max="6" min="6" style="1" width="14.3516"/>
+    <col customWidth="1" max="7" min="7" style="1" width="18.1719"/>
+    <col customWidth="1" max="8" min="8" style="1" width="14.6719"/>
+    <col customWidth="1" max="10" min="9" style="1" width="19.3516"/>
+    <col customWidth="1" max="11" min="11" style="1" width="8.851559999999999"/>
+    <col customWidth="1" max="12" min="12" style="1" width="19.5"/>
+    <col customWidth="1" max="13" min="13" style="1" width="8.851559999999999"/>
+    <col customWidth="1" max="256" min="14" style="1" width="8.851559999999999"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+    <row customHeight="1" ht="13.65" r="1" s="4">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>CaseId</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>説明</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>DoOrNot</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>前提条件</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Url</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Method</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>cookie操作</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>予想結果形式</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>予想結果</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>データ</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="n"/>
     </row>
-    <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+    <row customHeight="1" ht="13.65" r="2" s="4">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>広告取得</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>api3/getbanneradvertver2</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>{“username”:”111111”}</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>mec</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="n"/>
+      <c r="M2" s="3" t="n"/>
     </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+    <row customHeight="1" ht="13.65" r="3" s="4">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>テスト</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>api3/beta4</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>{“username”:”111112”}</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>errorcode</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
     </row>
-    <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+    <row customHeight="1" ht="13.65" r="4" s="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>new授業</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>api3/newcourseskill</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>{“username”:”111113”}</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="n"/>
+      <c r="M4" s="3" t="n"/>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+    <row customHeight="1" ht="13.65" r="5" s="4">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>004</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>評価</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>api3/getdownrecommend</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>{“username”:”111114”}</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>失敗</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1569579905459}</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="n"/>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+    <row customHeight="1" ht="13.65" r="6" s="4">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>005</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>従業詳細</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>api3/getcourseintro</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>{“username”:”111115”}</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>失敗</t>
+        </is>
+      </c>
+      <c r="L6" s="3" t="inlineStr">
+        <is>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1569579905704}</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="n"/>
     </row>
-    <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+    <row customHeight="1" ht="13.65" r="7" s="4">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>006</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>再生リスト</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>api3/getmedialist</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>{“username”:”111116”}</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="n"/>
+      <c r="M7" s="3" t="n"/>
     </row>
-    <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="2"/>
+    <row customHeight="1" ht="13.65" r="8" s="4">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>007</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>授業リスト</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>api3/courselistinfo</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>{“username”:”111117”}</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>失敗</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1569579906196}</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="n"/>
     </row>
-    <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+    <row customHeight="1" ht="13.65" r="9" s="4">
+      <c r="A9" s="2" t="n"/>
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="3" t="n"/>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="3" t="n"/>
+      <c r="L9" s="3" t="n"/>
+      <c r="M9" s="3" t="n"/>
     </row>
-    <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+    <row customHeight="1" ht="13.65" r="10" s="4">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
+      <c r="G10" s="2" t="n"/>
+      <c r="H10" s="3" t="n"/>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="3" t="n"/>
+      <c r="L10" s="3" t="n"/>
+      <c r="M10" s="3" t="n"/>
     </row>
-    <row r="11" ht="13.65" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+    <row customHeight="1" ht="13.65" r="11" s="4">
+      <c r="A11" s="2" t="n"/>
+      <c r="B11" s="2" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
+      <c r="G11" s="2" t="n"/>
+      <c r="H11" s="3" t="n"/>
+      <c r="I11" s="3" t="n"/>
+      <c r="J11" s="3" t="n"/>
+      <c r="K11" s="3" t="n"/>
+      <c r="L11" s="3" t="n"/>
+      <c r="M11" s="3" t="n"/>
     </row>
-    <row r="12" ht="13.65" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+    <row customHeight="1" ht="13.65" r="12" s="4">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="3" t="n"/>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="3" t="n"/>
+      <c r="L12" s="3" t="n"/>
+      <c r="M12" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="overThenDown"/>
+  <pageMargins bottom="0.37" footer="0.1" header="0.1" left="0.3" right="0.3" top="0.61"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="overThenDown" scale="100" useFirstPageNumber="0"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddHeader>
-    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;10&amp;K000000keyworld.xls</oddFooter>
+    <oddHeader>&amp;L&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12 &amp;K000000&amp;P</oddHeader>
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;10 &amp;K000000keyworld.xls</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/Case/api_test_case_imooc.xlsx
+++ b/Case/api_test_case_imooc.xlsx
@@ -1,40 +1,207 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="18080" windowWidth="15960" xWindow="0" yWindow="40"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="シート1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="シート1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+  <si>
+    <t>CaseId</t>
+  </si>
+  <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>DoOrNot</t>
+  </si>
+  <si>
+    <t>前提条件</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>cookie操作</t>
+  </si>
+  <si>
+    <t>header操作</t>
+  </si>
+  <si>
+    <t>予想結果形式</t>
+  </si>
+  <si>
+    <t>予想結果</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>データ</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>広告取得</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>api3/getbanneradvertver2</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{“username”:”111111”}</t>
+  </si>
+  <si>
+    <t>mec</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>テスト</t>
+  </si>
+  <si>
+    <t>api3/beta4</t>
+  </si>
+  <si>
+    <t>{“username”:”111112”}</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>errorcode</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>new授業</t>
+  </si>
+  <si>
+    <t>api3/newcourseskill</t>
+  </si>
+  <si>
+    <t>{“username”:”111113”}</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>評価</t>
+  </si>
+  <si>
+    <t>api3/getdownrecommend</t>
+  </si>
+  <si>
+    <t>{“username”:”111114”}</t>
+  </si>
+  <si>
+    <t>失敗</t>
+  </si>
+  <si>
+    <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1569823359863}</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>従業詳細</t>
+  </si>
+  <si>
+    <t>api3/getcourseintro</t>
+  </si>
+  <si>
+    <t>{“username”:”111115”}</t>
+  </si>
+  <si>
+    <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1569823360197}</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>再生リスト</t>
+  </si>
+  <si>
+    <t>api3/getmedialist</t>
+  </si>
+  <si>
+    <t>{“username”:”111116”}</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>授業リスト</t>
+  </si>
+  <si>
+    <t>api3/courselistinfo</t>
+  </si>
+  <si>
+    <t>{“username”:”111117”}</t>
+  </si>
+  <si>
+    <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1569823360756}</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
   <fonts count="3">
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
-      <color indexed="8"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
       <name val="Arial"/>
-      <color indexed="8"/>
-      <sz val="13"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -71,29 +238,44 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1152,542 +1334,400 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M12"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView defaultGridColor="1" showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="8.83333" defaultRowHeight="12.75" outlineLevelRow="0"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="3" min="1" style="1" width="8.851559999999999"/>
-    <col customWidth="1" max="4" min="4" style="1" width="14.8516"/>
-    <col customWidth="1" max="5" min="5" style="1" width="23.8516"/>
-    <col customWidth="1" max="6" min="6" style="1" width="14.3516"/>
-    <col customWidth="1" max="7" min="7" style="1" width="18.1719"/>
-    <col customWidth="1" max="8" min="8" style="1" width="14.6719"/>
-    <col customWidth="1" max="10" min="9" style="1" width="19.3516"/>
-    <col customWidth="1" max="11" min="11" style="1" width="8.851559999999999"/>
-    <col customWidth="1" max="12" min="12" style="1" width="19.5"/>
-    <col customWidth="1" max="13" min="13" style="1" width="8.851559999999999"/>
-    <col customWidth="1" max="256" min="14" style="1" width="8.851559999999999"/>
+    <col min="1" max="3" width="8.85156" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.8516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.8516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1719" style="1" customWidth="1"/>
+    <col min="8" max="9" width="14.6719" style="1" customWidth="1"/>
+    <col min="10" max="11" width="19.3516" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85156" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85156" style="1" customWidth="1"/>
+    <col min="15" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.65" r="1" s="4">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>CaseId</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>説明</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>DoOrNot</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>前提条件</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Url</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Method</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>cookie操作</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>予想結果形式</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>予想結果</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>データ</t>
-        </is>
-      </c>
-      <c r="M1" s="2" t="n"/>
+    <row r="1" ht="13.65" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2"/>
     </row>
-    <row customHeight="1" ht="13.65" r="2" s="4">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>広告取得</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>api3/getbanneradvertver2</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>{“username”:”111111”}</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>mec</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="n"/>
-      <c r="M2" s="3" t="n"/>
+    <row r="2" ht="13.65" customHeight="1">
+      <c r="A2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
-    <row customHeight="1" ht="13.65" r="3" s="4">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>002</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>テスト</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>api3/beta4</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>{“username”:”111112”}</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>errorcode</t>
-        </is>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>1006</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
+    <row r="3" ht="13.65" customHeight="1">
+      <c r="A3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
-    <row customHeight="1" ht="13.65" r="4" s="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>003</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>new授業</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>api3/newcourseskill</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>{“username”:”111113”}</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="3" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
-      <c r="L4" s="3" t="n"/>
-      <c r="M4" s="3" t="n"/>
+    <row r="4" ht="13.65" customHeight="1">
+      <c r="A4" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
-    <row customHeight="1" ht="13.65" r="5" s="4">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>004</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>評価</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>api3/getdownrecommend</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>{“username”:”111114”}</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="n"/>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
-          <t>失敗</t>
-        </is>
-      </c>
-      <c r="L5" s="3" t="inlineStr">
-        <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1569579905459}</t>
-        </is>
-      </c>
-      <c r="M5" s="3" t="n"/>
+    <row r="5" ht="13.65" customHeight="1">
+      <c r="A5" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="N5" s="3"/>
     </row>
-    <row customHeight="1" ht="13.65" r="6" s="4">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>従業詳細</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>api3/getcourseintro</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>{“username”:”111115”}</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="n"/>
-      <c r="K6" s="3" t="inlineStr">
-        <is>
-          <t>失敗</t>
-        </is>
-      </c>
-      <c r="L6" s="3" t="inlineStr">
-        <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1569579905704}</t>
-        </is>
-      </c>
-      <c r="M6" s="3" t="n"/>
+    <row r="6" ht="13.65" customHeight="1">
+      <c r="A6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="N6" s="3"/>
     </row>
-    <row customHeight="1" ht="13.65" r="7" s="4">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>006</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>再生リスト</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>api3/getmedialist</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>{“username”:”111116”}</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="n"/>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
-      <c r="L7" s="3" t="n"/>
-      <c r="M7" s="3" t="n"/>
+    <row r="7" ht="13.65" customHeight="1">
+      <c r="A7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
-    <row customHeight="1" ht="13.65" r="8" s="4">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>007</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>授業リスト</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>api3/courselistinfo</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>{“username”:”111117”}</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="n"/>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>失敗</t>
-        </is>
-      </c>
-      <c r="L8" s="3" t="inlineStr">
-        <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1569579906196}</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="n"/>
+    <row r="8" ht="13.65" customHeight="1">
+      <c r="A8" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="N8" s="2"/>
     </row>
-    <row customHeight="1" ht="13.65" r="9" s="4">
-      <c r="A9" s="2" t="n"/>
-      <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
-      <c r="G9" s="2" t="n"/>
-      <c r="H9" s="3" t="n"/>
-      <c r="I9" s="2" t="n"/>
-      <c r="J9" s="2" t="n"/>
-      <c r="K9" s="3" t="n"/>
-      <c r="L9" s="3" t="n"/>
-      <c r="M9" s="3" t="n"/>
+    <row r="9" ht="13.65" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
     </row>
-    <row customHeight="1" ht="13.65" r="10" s="4">
-      <c r="A10" s="2" t="n"/>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
-      <c r="G10" s="2" t="n"/>
-      <c r="H10" s="3" t="n"/>
-      <c r="I10" s="2" t="n"/>
-      <c r="J10" s="2" t="n"/>
-      <c r="K10" s="3" t="n"/>
-      <c r="L10" s="3" t="n"/>
-      <c r="M10" s="3" t="n"/>
+    <row r="10" ht="13.65" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
     </row>
-    <row customHeight="1" ht="13.65" r="11" s="4">
-      <c r="A11" s="2" t="n"/>
-      <c r="B11" s="2" t="n"/>
-      <c r="C11" s="2" t="n"/>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
-      <c r="G11" s="2" t="n"/>
-      <c r="H11" s="3" t="n"/>
-      <c r="I11" s="3" t="n"/>
-      <c r="J11" s="3" t="n"/>
-      <c r="K11" s="3" t="n"/>
-      <c r="L11" s="3" t="n"/>
-      <c r="M11" s="3" t="n"/>
+    <row r="11" ht="13.65" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
     </row>
-    <row customHeight="1" ht="13.65" r="12" s="4">
-      <c r="A12" s="2" t="n"/>
-      <c r="B12" s="2" t="n"/>
-      <c r="C12" s="2" t="n"/>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
-      <c r="G12" s="2" t="n"/>
-      <c r="H12" s="3" t="n"/>
-      <c r="I12" s="2" t="n"/>
-      <c r="J12" s="2" t="n"/>
-      <c r="K12" s="3" t="n"/>
-      <c r="L12" s="3" t="n"/>
-      <c r="M12" s="3" t="n"/>
+    <row r="12" ht="13.65" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.37" footer="0.1" header="0.1" left="0.3" right="0.3" top="0.61"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="overThenDown" scale="100" useFirstPageNumber="0"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="overThenDown"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12 &amp;K000000&amp;P</oddHeader>
-    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;10 &amp;K000000keyworld.xls</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddHeader>
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;10&amp;K000000keyworld.xls</oddFooter>
   </headerFooter>
 </worksheet>
 </file>